--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Sieve_Bootstrap.xlsx
@@ -429,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2139092476935821</v>
+        <v>0.05536738572306141</v>
       </c>
       <c r="C2">
-        <v>-0.2057182948199165</v>
+        <v>-0.11034018169126</v>
       </c>
       <c r="D2">
-        <v>0.9029189984145909</v>
+        <v>0.768606875789034</v>
       </c>
       <c r="E2">
-        <v>0.2622300623361527</v>
+        <v>-0.03477432211494006</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.06161929860059143</v>
+        <v>0.1140651878936602</v>
       </c>
       <c r="C3">
-        <v>-0.05144505983204889</v>
+        <v>-0.06539443422077537</v>
       </c>
       <c r="D3">
-        <v>0.02925378057462592</v>
+        <v>-0.01442959368523549</v>
       </c>
       <c r="E3">
-        <v>0.07871009201838614</v>
+        <v>0.1049908797155545</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +463,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.00778594500422943</v>
+        <v>-0.07505793907031309</v>
       </c>
       <c r="C4">
-        <v>0.3330082953586717</v>
+        <v>0.1062176505240186</v>
       </c>
       <c r="D4">
-        <v>-0.07104831769523852</v>
+        <v>-0.1368056665725507</v>
       </c>
       <c r="E4">
-        <v>-0.06101385313504568</v>
+        <v>0.06839031063409196</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.1604466963623225</v>
+        <v>0.1034705509471265</v>
       </c>
       <c r="C5">
-        <v>-0.03131438879275249</v>
+        <v>-0.1463418316517127</v>
       </c>
       <c r="D5">
-        <v>0.1069860006344218</v>
+        <v>-0.06232977129326166</v>
       </c>
       <c r="E5">
-        <v>-0.05481759536293095</v>
+        <v>0.1265871775773947</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,16 +497,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>74.64882623883076</v>
+        <v>-1.414803524095609</v>
       </c>
       <c r="C6">
-        <v>86.116155732149</v>
+        <v>11.50232248106203</v>
       </c>
       <c r="D6">
-        <v>81.13730819058779</v>
+        <v>12.70517222848191</v>
       </c>
       <c r="E6">
-        <v>71.31255607443448</v>
+        <v>25.86448165305455</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,16 +514,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>97.73164941256186</v>
+        <v>98.73006621367118</v>
       </c>
       <c r="C7">
-        <v>97.36289701847342</v>
+        <v>98.33052178809814</v>
       </c>
       <c r="D7">
-        <v>97.68615756847461</v>
+        <v>98.24200989021298</v>
       </c>
       <c r="E7">
-        <v>97.42133557838407</v>
+        <v>97.5389890457102</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,16 +531,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>96.42126742086199</v>
+        <v>95.64199836589123</v>
       </c>
       <c r="C8">
-        <v>96.36598938189844</v>
+        <v>94.46281468534568</v>
       </c>
       <c r="D8">
-        <v>96.27297397668406</v>
+        <v>95.55684902484158</v>
       </c>
       <c r="E8">
-        <v>96.11286808306195</v>
+        <v>95.80526163096499</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Sieve_Bootstrap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Var=0.2</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>98.73006621367118</v>
+        <v>98.21046445653728</v>
       </c>
       <c r="C7">
-        <v>98.33052178809814</v>
+        <v>97.61420596324969</v>
       </c>
       <c r="D7">
-        <v>98.24200989021298</v>
+        <v>98.57091521349003</v>
       </c>
       <c r="E7">
-        <v>97.5389890457102</v>
+        <v>97.49885176329013</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,15 +534,32 @@
         <v>10</v>
       </c>
       <c r="B8">
+        <v>98.73006621367118</v>
+      </c>
+      <c r="C8">
+        <v>98.33052178809814</v>
+      </c>
+      <c r="D8">
+        <v>98.24200989021298</v>
+      </c>
+      <c r="E8">
+        <v>97.5389890457102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>95.64199836589123</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>94.46281468534568</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>95.55684902484158</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>95.80526163096499</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_5_var_Sieve_Bootstrap.xlsx
@@ -517,16 +517,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>98.21046445653728</v>
+        <v>96.97943286999613</v>
       </c>
       <c r="C7">
-        <v>97.61420596324969</v>
+        <v>97.8074541382358</v>
       </c>
       <c r="D7">
-        <v>98.57091521349003</v>
+        <v>98.54831033822251</v>
       </c>
       <c r="E7">
-        <v>97.49885176329013</v>
+        <v>98.0932548426664</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>98.73006621367118</v>
+        <v>97.459627063686</v>
       </c>
       <c r="C8">
-        <v>98.33052178809814</v>
+        <v>98.05797150468032</v>
       </c>
       <c r="D8">
-        <v>98.24200989021298</v>
+        <v>98.12388290307297</v>
       </c>
       <c r="E8">
-        <v>97.5389890457102</v>
+        <v>98.66986366616644</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -551,16 +551,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>95.64199836589123</v>
+        <v>95.92516712784717</v>
       </c>
       <c r="C9">
-        <v>94.46281468534568</v>
+        <v>94.6367803025617</v>
       </c>
       <c r="D9">
-        <v>95.55684902484158</v>
+        <v>94.65867866342001</v>
       </c>
       <c r="E9">
-        <v>95.80526163096499</v>
+        <v>96.23645965195773</v>
       </c>
     </row>
   </sheetData>
